--- a/TestProject/TestProject/wwwroot/upload/Sheet1_타과동일유사.xlsx
+++ b/TestProject/TestProject/wwwroot/upload/Sheet1_타과동일유사.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\GraduationAssesment\TestProject\TestProject\wwwroot\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F98496-98BD-4C1F-A2A6-896EBEE76D29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB578DEA-1397-4312-A108-B4032250AC3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" xr2:uid="{00E3A524-EC4E-456D-BA7B-A22EDF3283C9}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="245">
   <si>
     <t>순번</t>
   </si>
@@ -1364,7 +1364,7 @@
   <dimension ref="B1:W51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:XFD38"/>
+      <selection activeCell="F37" sqref="F37:F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3429,6 +3429,9 @@
       <c r="E38" s="21" t="s">
         <v>197</v>
       </c>
+      <c r="F38" s="23" t="s">
+        <v>198</v>
+      </c>
       <c r="G38" s="21" t="s">
         <v>242</v>
       </c>
@@ -3458,6 +3461,9 @@
       <c r="E39" s="22" t="s">
         <v>203</v>
       </c>
+      <c r="F39" s="23" t="s">
+        <v>198</v>
+      </c>
       <c r="G39" s="22" t="s">
         <v>207</v>
       </c>
@@ -3481,6 +3487,9 @@
       <c r="E40" s="21" t="s">
         <v>203</v>
       </c>
+      <c r="F40" s="23" t="s">
+        <v>198</v>
+      </c>
       <c r="G40" s="21" t="s">
         <v>210</v>
       </c>
@@ -3504,6 +3513,9 @@
       <c r="E41" s="22" t="s">
         <v>203</v>
       </c>
+      <c r="F41" s="23" t="s">
+        <v>198</v>
+      </c>
       <c r="G41" s="22" t="s">
         <v>216</v>
       </c>
@@ -3527,6 +3539,9 @@
       <c r="E42" s="21" t="s">
         <v>203</v>
       </c>
+      <c r="F42" s="23" t="s">
+        <v>198</v>
+      </c>
       <c r="G42" s="21" t="s">
         <v>215</v>
       </c>
@@ -3550,7 +3565,7 @@
       <c r="E43" s="22" t="s">
         <v>203</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="23" t="s">
         <v>198</v>
       </c>
       <c r="G43" s="22" t="s">
@@ -3576,6 +3591,9 @@
       <c r="E44" s="21" t="s">
         <v>203</v>
       </c>
+      <c r="F44" s="23" t="s">
+        <v>198</v>
+      </c>
       <c r="G44" s="21" t="s">
         <v>233</v>
       </c>
@@ -3605,6 +3623,9 @@
       <c r="E45" s="22" t="s">
         <v>203</v>
       </c>
+      <c r="F45" s="23" t="s">
+        <v>198</v>
+      </c>
       <c r="G45" s="22" t="s">
         <v>220</v>
       </c>
@@ -3628,6 +3649,9 @@
       <c r="E46" s="21" t="s">
         <v>203</v>
       </c>
+      <c r="F46" s="23" t="s">
+        <v>198</v>
+      </c>
       <c r="G46" s="21" t="s">
         <v>222</v>
       </c>
@@ -3651,6 +3675,9 @@
       <c r="E47" s="22" t="s">
         <v>203</v>
       </c>
+      <c r="F47" s="23" t="s">
+        <v>198</v>
+      </c>
       <c r="G47" s="22" t="s">
         <v>225</v>
       </c>
@@ -3677,6 +3704,9 @@
       <c r="E48" s="21" t="s">
         <v>203</v>
       </c>
+      <c r="F48" s="23" t="s">
+        <v>198</v>
+      </c>
       <c r="G48" s="21" t="s">
         <v>227</v>
       </c>
@@ -3699,6 +3729,9 @@
     <row r="49" spans="2:23" x14ac:dyDescent="0.4">
       <c r="E49" s="22" t="s">
         <v>203</v>
+      </c>
+      <c r="F49" s="23" t="s">
+        <v>198</v>
       </c>
       <c r="G49" s="22" t="s">
         <v>229</v>
